--- a/gzl_reporte/report/OC_OS.xlsx
+++ b/gzl_reporte/report/OC_OS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27106BDB-2811-4501-9DF4-16CAD66DD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD867B5E-575B-4204-9153-BF0F9FDD5471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7485" yWindow="7290" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orden Compra" sheetId="4" r:id="rId1"/>
@@ -158,8 +158,8 @@
     <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0000000000"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0000000000"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -320,13 +320,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="91" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="91" zoomScaleNormal="100" zoomScaleSheetLayoutView="91" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="C6" s="20">
         <f ca="1">TODAY()</f>
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1011,7 +1011,9 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>10000</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1019,7 +1021,9 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7">
+        <v>2300</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
@@ -1027,7 +1031,9 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7">
+        <v>500</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -1036,7 +1042,9 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7">
+        <v>455</v>
+      </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -1047,20 +1055,20 @@
       <c r="D34" s="15"/>
       <c r="E34" s="13">
         <f>+E31+E32+E33</f>
-        <v>0</v>
+        <v>3255</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="19">
+      <c r="B35" s="19" t="str">
         <f>IF(E35=0,0,"DIFERENCIA PAGA AL CONCESIONARIO")</f>
-        <v>0</v>
+        <v>DIFERENCIA PAGA AL CONCESIONARIO</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="8">
         <f>IF(E34&lt;E30,E30-E34,0)</f>
-        <v>0</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -1117,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC41FE2E-B018-48AC-B752-D621F16E51EB}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1143,7 @@
       </c>
       <c r="C7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1146,9 +1154,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B12" s="3">
+        <f>'Orden Compra'!B10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -1179,17 +1187,29 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
+      <c r="C18">
+        <f>'Orden Compra'!C16</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
+      <c r="C19">
+        <f>'Orden Compra'!C17</f>
+        <v>0</v>
+      </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>'Orden Compra'!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="23"/>
@@ -1201,6 +1221,10 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
+      <c r="C21">
+        <f>'Orden Compra'!C19</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
@@ -1217,23 +1241,39 @@
       <c r="B25" t="s">
         <v>11</v>
       </c>
+      <c r="C25">
+        <f>'Orden Compra'!C23</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>12</v>
       </c>
+      <c r="C26">
+        <f>'Orden Compra'!C24</f>
+        <v>0</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>13</v>
       </c>
+      <c r="C27">
+        <f>'Orden Compra'!C25</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>14</v>
+      </c>
+      <c r="C28">
+        <f>'Orden Compra'!C26</f>
+        <v>0</v>
       </c>
       <c r="D28" s="3"/>
     </row>
